--- a/模电A（自动化789） 成绩.xlsx
+++ b/模电A（自动化789） 成绩.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\document\助教\2020-2021下模电\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEFE69B6-750F-46B1-BCAA-A234DA4B0A11}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89EC6C67-9471-4FBD-8D51-C7B38411F32B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1240,8 +1240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3502,6 +3502,9 @@
       <c r="E45">
         <v>5</v>
       </c>
+      <c r="F45">
+        <v>5</v>
+      </c>
       <c r="G45">
         <v>5</v>
       </c>

--- a/模电A（自动化789） 成绩.xlsx
+++ b/模电A（自动化789） 成绩.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\document\助教\2020-2021下模电\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89EC6C67-9471-4FBD-8D51-C7B38411F32B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8361B1F5-BE26-4D77-97B5-18E5EDEAFED9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1240,8 +1240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="R60" sqref="R60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -4237,6 +4237,9 @@
       <c r="E60">
         <v>4.5</v>
       </c>
+      <c r="F60">
+        <v>5</v>
+      </c>
       <c r="G60">
         <v>5</v>
       </c>
@@ -4269,6 +4272,9 @@
       </c>
       <c r="Q60">
         <v>7.5</v>
+      </c>
+      <c r="R60">
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:18">

--- a/模电A（自动化789） 成绩.xlsx
+++ b/模电A（自动化789） 成绩.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\document\助教\2020-2021下模电\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8361B1F5-BE26-4D77-97B5-18E5EDEAFED9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C4B038-206D-42CD-A8EB-5190460402FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="245">
   <si>
     <t>姓</t>
   </si>
@@ -726,10 +726,6 @@
   </si>
   <si>
     <t>第二次小测</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1240,8 +1236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="R60" sqref="R60"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="R31" sqref="R31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1270,28 +1266,28 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>245</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>233</v>
@@ -1303,13 +1299,13 @@
         <v>232</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>235</v>
+      </c>
+      <c r="R1" t="s">
         <v>237</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>236</v>
-      </c>
-      <c r="R1" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -1932,6 +1928,9 @@
       <c r="Q13">
         <v>9.5</v>
       </c>
+      <c r="R13">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" t="s">
@@ -2187,8 +2186,14 @@
       <c r="O18">
         <v>5</v>
       </c>
+      <c r="P18">
+        <v>5</v>
+      </c>
       <c r="Q18">
         <v>8.5</v>
+      </c>
+      <c r="R18">
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2850,8 +2855,14 @@
       <c r="O31">
         <v>5</v>
       </c>
+      <c r="P31">
+        <v>5</v>
+      </c>
       <c r="Q31">
         <v>8.5</v>
+      </c>
+      <c r="R31">
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3048,8 +3059,14 @@
       <c r="O35">
         <v>5</v>
       </c>
+      <c r="P35">
+        <v>5</v>
+      </c>
       <c r="Q35">
         <v>9.5</v>
+      </c>
+      <c r="R35">
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:18" ht="14.4">
@@ -3268,8 +3285,14 @@
       <c r="O40">
         <v>5</v>
       </c>
+      <c r="P40">
+        <v>5</v>
+      </c>
       <c r="Q40">
         <v>8.5</v>
+      </c>
+      <c r="R40">
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -3634,8 +3657,14 @@
       <c r="O47">
         <v>5</v>
       </c>
+      <c r="P47">
+        <v>5</v>
+      </c>
       <c r="Q47">
         <v>8.5</v>
+      </c>
+      <c r="R47">
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4408,6 +4437,9 @@
       <c r="G63">
         <v>5</v>
       </c>
+      <c r="H63">
+        <v>5</v>
+      </c>
       <c r="I63">
         <v>4</v>
       </c>
@@ -4434,6 +4466,9 @@
       </c>
       <c r="Q63">
         <v>7</v>
+      </c>
+      <c r="R63">
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4684,8 +4719,14 @@
       <c r="O68">
         <v>5</v>
       </c>
+      <c r="P68">
+        <v>5</v>
+      </c>
       <c r="Q68">
         <v>6.5</v>
+      </c>
+      <c r="R68">
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -4825,6 +4866,9 @@
       <c r="O71">
         <v>5</v>
       </c>
+      <c r="P71">
+        <v>5</v>
+      </c>
       <c r="Q71">
         <v>9.5</v>
       </c>
@@ -5303,7 +5347,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="81" spans="1:17">
+    <row r="81" spans="1:18">
       <c r="A81" t="s">
         <v>194</v>
       </c>
@@ -5338,8 +5382,8 @@
       <c r="K81">
         <v>5</v>
       </c>
-      <c r="L81" t="s">
-        <v>234</v>
+      <c r="L81">
+        <v>9</v>
       </c>
       <c r="M81">
         <v>9.5</v>
@@ -5354,7 +5398,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="82" spans="1:17">
+    <row r="82" spans="1:18">
       <c r="A82" t="s">
         <v>197</v>
       </c>
@@ -5393,7 +5437,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:17">
+    <row r="83" spans="1:18">
       <c r="A83" t="s">
         <v>200</v>
       </c>
@@ -5447,7 +5491,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:17">
+    <row r="84" spans="1:18">
       <c r="A84" t="s">
         <v>203</v>
       </c>
@@ -5498,7 +5542,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="85" spans="1:17">
+    <row r="85" spans="1:18">
       <c r="A85" t="s">
         <v>206</v>
       </c>
@@ -5552,7 +5596,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="86" spans="1:17">
+    <row r="86" spans="1:18">
       <c r="A86" t="s">
         <v>209</v>
       </c>
@@ -5579,7 +5623,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:17">
+    <row r="87" spans="1:18">
       <c r="A87" t="s">
         <v>212</v>
       </c>
@@ -5630,7 +5674,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:17">
+    <row r="88" spans="1:18">
       <c r="A88" t="s">
         <v>215</v>
       </c>
@@ -5683,8 +5727,11 @@
       <c r="Q88">
         <v>7</v>
       </c>
-    </row>
-    <row r="89" spans="1:17">
+      <c r="R88">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18">
       <c r="A89" t="s">
         <v>218</v>
       </c>
@@ -5735,7 +5782,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="90" spans="1:17">
+    <row r="90" spans="1:18">
       <c r="A90" t="s">
         <v>221</v>
       </c>
@@ -5783,7 +5830,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="91" spans="1:17">
+    <row r="91" spans="1:18">
       <c r="A91" t="s">
         <v>221</v>
       </c>
@@ -5831,7 +5878,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="92" spans="1:17">
+    <row r="92" spans="1:18">
       <c r="A92" t="s">
         <v>226</v>
       </c>
@@ -5882,7 +5929,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="93" spans="1:17">
+    <row r="93" spans="1:18">
       <c r="A93" t="s">
         <v>229</v>
       </c>

--- a/模电A（自动化789） 成绩.xlsx
+++ b/模电A（自动化789） 成绩.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\document\助教\2020-2021下模电\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C4B038-206D-42CD-A8EB-5190460402FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB673C4-20BD-44A7-9981-5060746E1FF6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1236,8 +1236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="R31" sqref="R31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1514,6 +1514,9 @@
       <c r="Q5">
         <v>9</v>
       </c>
+      <c r="R5">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" t="s">

--- a/模电A（自动化789） 成绩.xlsx
+++ b/模电A（自动化789） 成绩.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\document\助教\2020-2021下模电\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB673C4-20BD-44A7-9981-5060746E1FF6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C7CF5B-7D34-4845-931C-39C99BA591A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1236,8 +1236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="R54" sqref="R54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1457,8 +1457,14 @@
       <c r="O4">
         <v>4.5</v>
       </c>
+      <c r="P4">
+        <v>5</v>
+      </c>
       <c r="Q4">
         <v>7.5</v>
+      </c>
+      <c r="R4">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1874,8 +1880,14 @@
       <c r="O12">
         <v>5</v>
       </c>
+      <c r="P12">
+        <v>5</v>
+      </c>
       <c r="Q12">
         <v>9.5</v>
+      </c>
+      <c r="R12">
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2033,8 +2045,14 @@
       <c r="O15">
         <v>5</v>
       </c>
+      <c r="P15">
+        <v>5</v>
+      </c>
       <c r="Q15">
         <v>8.5</v>
+      </c>
+      <c r="R15">
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2141,6 +2159,9 @@
       <c r="Q17">
         <v>7</v>
       </c>
+      <c r="R17">
+        <v>5</v>
+      </c>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" t="s">
@@ -2549,8 +2570,14 @@
       <c r="O25">
         <v>5</v>
       </c>
+      <c r="P25">
+        <v>5</v>
+      </c>
       <c r="Q25">
         <v>9</v>
+      </c>
+      <c r="R25">
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -2651,6 +2678,9 @@
       <c r="O27">
         <v>5</v>
       </c>
+      <c r="P27">
+        <v>5</v>
+      </c>
       <c r="Q27">
         <v>8</v>
       </c>
@@ -3014,6 +3044,9 @@
       <c r="Q34">
         <v>9</v>
       </c>
+      <c r="R34">
+        <v>5</v>
+      </c>
     </row>
     <row r="35" spans="1:18">
       <c r="A35" t="s">
@@ -3135,8 +3168,14 @@
       <c r="O37">
         <v>5</v>
       </c>
+      <c r="P37">
+        <v>5</v>
+      </c>
       <c r="Q37">
         <v>9</v>
+      </c>
+      <c r="R37">
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3609,8 +3648,14 @@
       <c r="O46">
         <v>5</v>
       </c>
+      <c r="P46">
+        <v>5</v>
+      </c>
       <c r="Q46">
         <v>7</v>
+      </c>
+      <c r="R46">
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -3717,8 +3762,14 @@
       <c r="O48">
         <v>4.5</v>
       </c>
+      <c r="P48">
+        <v>5</v>
+      </c>
       <c r="Q48">
         <v>8.5</v>
+      </c>
+      <c r="R48">
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -3768,8 +3819,14 @@
       <c r="O49">
         <v>5</v>
       </c>
+      <c r="P49">
+        <v>4.5</v>
+      </c>
       <c r="Q49">
         <v>9</v>
+      </c>
+      <c r="R49">
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4026,8 +4083,14 @@
       <c r="O54">
         <v>4.5</v>
       </c>
+      <c r="P54">
+        <v>5</v>
+      </c>
       <c r="Q54">
         <v>8</v>
+      </c>
+      <c r="R54">
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4770,6 +4833,9 @@
       <c r="Q69">
         <v>7</v>
       </c>
+      <c r="R69">
+        <v>5</v>
+      </c>
     </row>
     <row r="70" spans="1:18">
       <c r="A70" t="s">
@@ -4875,6 +4941,9 @@
       <c r="Q71">
         <v>9.5</v>
       </c>
+      <c r="R71">
+        <v>5</v>
+      </c>
     </row>
     <row r="72" spans="1:18">
       <c r="A72" t="s">
@@ -4977,8 +5046,14 @@
       <c r="O73">
         <v>4.5</v>
       </c>
+      <c r="P73">
+        <v>5</v>
+      </c>
       <c r="Q73">
         <v>7</v>
+      </c>
+      <c r="R73">
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5028,8 +5103,14 @@
       <c r="O74">
         <v>4.5</v>
       </c>
+      <c r="P74">
+        <v>5</v>
+      </c>
       <c r="Q74">
         <v>7.5</v>
+      </c>
+      <c r="R74">
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5187,8 +5268,14 @@
       <c r="O77">
         <v>5</v>
       </c>
+      <c r="P77">
+        <v>5</v>
+      </c>
       <c r="Q77">
         <v>7</v>
+      </c>
+      <c r="R77">
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5298,6 +5385,9 @@
       <c r="Q79">
         <v>9.5</v>
       </c>
+      <c r="R79">
+        <v>5</v>
+      </c>
     </row>
     <row r="80" spans="1:18">
       <c r="A80" t="s">
@@ -5397,8 +5487,14 @@
       <c r="O81">
         <v>5</v>
       </c>
+      <c r="P81">
+        <v>5</v>
+      </c>
       <c r="Q81">
         <v>7.5</v>
+      </c>
+      <c r="R81">
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5673,8 +5769,14 @@
       <c r="O87">
         <v>5</v>
       </c>
+      <c r="P87">
+        <v>5</v>
+      </c>
       <c r="Q87">
         <v>8</v>
+      </c>
+      <c r="R87">
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -5829,8 +5931,14 @@
       <c r="O90">
         <v>4</v>
       </c>
+      <c r="P90">
+        <v>5</v>
+      </c>
       <c r="Q90">
         <v>8.5</v>
+      </c>
+      <c r="R90">
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:18">

--- a/模电A（自动化789） 成绩.xlsx
+++ b/模电A（自动化789） 成绩.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\document\助教\2020-2021下模电\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C7CF5B-7D34-4845-931C-39C99BA591A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F43840B-2B25-4473-805B-6F65E482ED8E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1236,8 +1236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="R54" sqref="R54"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1355,8 +1355,14 @@
       <c r="O2">
         <v>5</v>
       </c>
+      <c r="P2">
+        <v>5</v>
+      </c>
       <c r="Q2">
         <v>8.5</v>
+      </c>
+      <c r="R2">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1406,8 +1412,14 @@
       <c r="O3">
         <v>5</v>
       </c>
+      <c r="P3">
+        <v>5</v>
+      </c>
       <c r="Q3">
         <v>7.5</v>
+      </c>
+      <c r="R3">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1628,8 +1640,14 @@
       <c r="O7">
         <v>4.5</v>
       </c>
+      <c r="P7">
+        <v>3</v>
+      </c>
       <c r="Q7">
         <v>9</v>
+      </c>
+      <c r="R7">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1724,8 +1742,14 @@
       <c r="O9">
         <v>5</v>
       </c>
+      <c r="P9">
+        <v>5</v>
+      </c>
       <c r="Q9">
         <v>9</v>
+      </c>
+      <c r="R9">
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1781,6 +1805,9 @@
       <c r="Q10">
         <v>8</v>
       </c>
+      <c r="R10">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" t="s">
@@ -1829,8 +1856,14 @@
       <c r="O11">
         <v>5</v>
       </c>
+      <c r="P11">
+        <v>5</v>
+      </c>
       <c r="Q11">
         <v>7.5</v>
+      </c>
+      <c r="R11">
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -1994,8 +2027,14 @@
       <c r="O14">
         <v>5</v>
       </c>
+      <c r="P14">
+        <v>3</v>
+      </c>
       <c r="Q14">
         <v>7</v>
+      </c>
+      <c r="R14">
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2102,8 +2141,14 @@
       <c r="O16">
         <v>5</v>
       </c>
+      <c r="P16">
+        <v>5</v>
+      </c>
       <c r="Q16">
         <v>7.5</v>
+      </c>
+      <c r="R16">
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2267,8 +2312,14 @@
       <c r="O19">
         <v>5</v>
       </c>
+      <c r="P19">
+        <v>5</v>
+      </c>
       <c r="Q19">
         <v>8.5</v>
+      </c>
+      <c r="R19">
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2369,8 +2420,17 @@
       <c r="N21">
         <v>7</v>
       </c>
+      <c r="O21">
+        <v>5</v>
+      </c>
+      <c r="P21">
+        <v>5</v>
+      </c>
       <c r="Q21">
         <v>8</v>
+      </c>
+      <c r="R21">
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2420,8 +2480,14 @@
       <c r="O22">
         <v>5</v>
       </c>
+      <c r="P22">
+        <v>5</v>
+      </c>
       <c r="Q22">
         <v>9.5</v>
+      </c>
+      <c r="R22">
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2468,8 +2534,17 @@
       <c r="N23">
         <v>7.5</v>
       </c>
+      <c r="O23">
+        <v>5</v>
+      </c>
+      <c r="P23">
+        <v>5</v>
+      </c>
       <c r="Q23">
         <v>8.5</v>
+      </c>
+      <c r="R23">
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2519,8 +2594,14 @@
       <c r="O24">
         <v>5</v>
       </c>
+      <c r="P24">
+        <v>5</v>
+      </c>
       <c r="Q24">
         <v>8</v>
+      </c>
+      <c r="R24">
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2627,8 +2708,14 @@
       <c r="O26">
         <v>5</v>
       </c>
+      <c r="P26">
+        <v>3</v>
+      </c>
       <c r="Q26">
         <v>7</v>
+      </c>
+      <c r="R26">
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -2684,6 +2771,9 @@
       <c r="Q27">
         <v>8</v>
       </c>
+      <c r="R27">
+        <v>5</v>
+      </c>
     </row>
     <row r="28" spans="1:18">
       <c r="A28" t="s">
@@ -2738,6 +2828,9 @@
       <c r="Q28">
         <v>7.5</v>
       </c>
+      <c r="R28">
+        <v>3</v>
+      </c>
     </row>
     <row r="29" spans="1:18">
       <c r="A29" t="s">
@@ -2786,8 +2879,14 @@
       <c r="O29">
         <v>4.5</v>
       </c>
+      <c r="P29">
+        <v>5</v>
+      </c>
       <c r="Q29">
         <v>9.5</v>
+      </c>
+      <c r="R29">
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -2837,8 +2936,14 @@
       <c r="O30">
         <v>5</v>
       </c>
+      <c r="P30">
+        <v>5</v>
+      </c>
       <c r="Q30">
         <v>7.5</v>
+      </c>
+      <c r="R30">
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3492,8 +3597,14 @@
       <c r="O43">
         <v>5</v>
       </c>
+      <c r="P43">
+        <v>5</v>
+      </c>
       <c r="Q43">
         <v>7.5</v>
+      </c>
+      <c r="R43">
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3549,6 +3660,9 @@
       <c r="Q44">
         <v>9</v>
       </c>
+      <c r="R44">
+        <v>5</v>
+      </c>
     </row>
     <row r="45" spans="1:18">
       <c r="A45" t="s">
@@ -3597,8 +3711,14 @@
       <c r="O45">
         <v>5</v>
       </c>
+      <c r="P45">
+        <v>5</v>
+      </c>
       <c r="Q45">
         <v>8.5</v>
+      </c>
+      <c r="R45">
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -3876,8 +3996,14 @@
       <c r="O50">
         <v>4.5</v>
       </c>
+      <c r="P50">
+        <v>5</v>
+      </c>
       <c r="Q50">
         <v>10</v>
+      </c>
+      <c r="R50">
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -3927,8 +4053,14 @@
       <c r="O51">
         <v>5</v>
       </c>
+      <c r="P51">
+        <v>5</v>
+      </c>
       <c r="Q51">
         <v>9</v>
+      </c>
+      <c r="R51">
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -3984,6 +4116,9 @@
       <c r="Q52">
         <v>8</v>
       </c>
+      <c r="R52">
+        <v>5</v>
+      </c>
     </row>
     <row r="53" spans="1:18">
       <c r="A53" t="s">
@@ -4032,8 +4167,14 @@
       <c r="O53">
         <v>5</v>
       </c>
+      <c r="P53">
+        <v>5</v>
+      </c>
       <c r="Q53">
         <v>7</v>
+      </c>
+      <c r="R53">
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -4140,8 +4281,14 @@
       <c r="O55">
         <v>5</v>
       </c>
+      <c r="P55">
+        <v>5</v>
+      </c>
       <c r="Q55">
         <v>7</v>
+      </c>
+      <c r="R55">
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4206,8 +4353,14 @@
       <c r="O57">
         <v>5</v>
       </c>
+      <c r="P57">
+        <v>5</v>
+      </c>
       <c r="Q57">
         <v>9</v>
+      </c>
+      <c r="R57">
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4263,6 +4416,9 @@
       <c r="Q58">
         <v>7</v>
       </c>
+      <c r="R58">
+        <v>5</v>
+      </c>
     </row>
     <row r="59" spans="1:18">
       <c r="A59" t="s">
@@ -4476,8 +4632,14 @@
       <c r="O62">
         <v>5</v>
       </c>
+      <c r="P62">
+        <v>5</v>
+      </c>
       <c r="Q62">
         <v>7.5</v>
+      </c>
+      <c r="R62">
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4632,8 +4794,17 @@
       <c r="N65">
         <v>7.5</v>
       </c>
+      <c r="O65">
+        <v>3</v>
+      </c>
+      <c r="P65">
+        <v>3</v>
+      </c>
       <c r="Q65">
         <v>7</v>
+      </c>
+      <c r="R65">
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -4683,8 +4854,14 @@
       <c r="O66">
         <v>5</v>
       </c>
+      <c r="P66">
+        <v>5</v>
+      </c>
       <c r="Q66">
         <v>8</v>
+      </c>
+      <c r="R66">
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -4734,8 +4911,14 @@
       <c r="O67">
         <v>5</v>
       </c>
+      <c r="P67">
+        <v>5</v>
+      </c>
       <c r="Q67">
         <v>9</v>
+      </c>
+      <c r="R67">
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -4884,8 +5067,14 @@
       <c r="O70">
         <v>5</v>
       </c>
+      <c r="P70">
+        <v>5</v>
+      </c>
       <c r="Q70">
         <v>9</v>
+      </c>
+      <c r="R70">
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -4998,6 +5187,9 @@
       <c r="Q72">
         <v>7.5</v>
       </c>
+      <c r="R72">
+        <v>5</v>
+      </c>
     </row>
     <row r="73" spans="1:18">
       <c r="A73" t="s">
@@ -5160,6 +5352,9 @@
       <c r="O75">
         <v>4.5</v>
       </c>
+      <c r="P75">
+        <v>5</v>
+      </c>
       <c r="Q75">
         <v>8.5</v>
       </c>
@@ -5331,6 +5526,9 @@
       <c r="Q78">
         <v>9</v>
       </c>
+      <c r="R78">
+        <v>5</v>
+      </c>
     </row>
     <row r="79" spans="1:18">
       <c r="A79" t="s">
@@ -5436,8 +5634,14 @@
       <c r="O80">
         <v>5</v>
       </c>
+      <c r="P80">
+        <v>5</v>
+      </c>
       <c r="Q80">
         <v>9.5</v>
+      </c>
+      <c r="R80">
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5589,6 +5793,9 @@
       <c r="Q83">
         <v>9</v>
       </c>
+      <c r="R83">
+        <v>5</v>
+      </c>
     </row>
     <row r="84" spans="1:18">
       <c r="A84" t="s">
@@ -5967,6 +6174,9 @@
       <c r="H91">
         <v>4</v>
       </c>
+      <c r="I91">
+        <v>5</v>
+      </c>
       <c r="J91">
         <v>5</v>
       </c>
@@ -5985,8 +6195,14 @@
       <c r="O91">
         <v>5</v>
       </c>
+      <c r="P91">
+        <v>5</v>
+      </c>
       <c r="Q91">
         <v>8.5</v>
+      </c>
+      <c r="R91">
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6036,8 +6252,14 @@
       <c r="O92">
         <v>4</v>
       </c>
+      <c r="P92">
+        <v>5</v>
+      </c>
       <c r="Q92">
         <v>7.5</v>
+      </c>
+      <c r="R92">
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:18">
